--- a/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -727,6 +727,97 @@
         </is>
       </c>
       <c r="W3" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tamaki at Stephensons</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0444860816398903</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.735294117647059</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0538509615384615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.227254527989595</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.765605296343</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1860701</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5540503</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Mana_5b</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>mg/m2</t>
         </is>

--- a/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.268276557661092</v>
+        <v>0.897662974082117</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="H2" t="n">
-        <v>0.880952380952381</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>5.25</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>0.213846604215457</v>
+        <v>-0.802747252747253</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.612856121519197</v>
+        <v>-2.12226793813417</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0802136609336</v>
+        <v>0.101241745549664</v>
       </c>
       <c r="N2" t="n">
-        <v>4.07326865172298</v>
+        <v>-21.9930754177329</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.205153167389977</v>
+        <v>0.1561846824104</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="H3" t="n">
-        <v>0.75</v>
+        <v>0.747368421052632</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.475</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0381977101845523</v>
+        <v>0.0454229257864196</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0563465939625409</v>
+        <v>-0.0423246827733439</v>
       </c>
       <c r="M3" t="n">
-        <v>0.327426609431846</v>
+        <v>0.209048047845462</v>
       </c>
       <c r="N3" t="n">
-        <v>1.09921468156985</v>
+        <v>1.46525567052967</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0444860816398903</v>
+        <v>0.08827525718496421</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0068493150684931</v>
       </c>
       <c r="H4" t="n">
-        <v>0.735294117647059</v>
+        <v>0.712328767123288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0538509615384615</v>
+        <v>0.0265119398274774</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0034724443135832</v>
       </c>
       <c r="M4" t="n">
-        <v>0.227254527989595</v>
+        <v>0.0971633583646566</v>
       </c>
       <c r="N4" t="n">
-        <v>1.765605296343</v>
+        <v>0.955385219008194</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">

--- a/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
+++ b/trend_results/Rivers/TamakiatStephensons_aaee89bde6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>site name</t>
   </si>
@@ -94,13 +94,16 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
@@ -570,37 +573,37 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.897662974082117</v>
+        <v>0.9958865391866381</v>
       </c>
       <c r="G2">
-        <v>0.0238095238095238</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="H2">
-        <v>0.928571428571429</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K2">
-        <v>-0.802747252747253</v>
+        <v>-1.29159218119163</v>
       </c>
       <c r="L2">
-        <v>-2.12226793813417</v>
+        <v>-2.30552453819919</v>
       </c>
       <c r="M2">
-        <v>0.101241745549664</v>
+        <v>-0.624131815332483</v>
       </c>
       <c r="N2">
-        <v>-21.9930754177329</v>
+        <v>-38.5549904833323</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>1860701</v>
@@ -609,19 +612,19 @@
         <v>5540503</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -638,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>0.1561846824104</v>
+        <v>0.484734898425425</v>
       </c>
       <c r="G3">
-        <v>0.0105263157894737</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H3">
-        <v>0.747368421052632</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -656,22 +659,22 @@
         <v>3.1</v>
       </c>
       <c r="K3">
-        <v>0.0454229257864196</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.0423246827733439</v>
+        <v>-0.148301358715333</v>
       </c>
       <c r="M3">
-        <v>0.209048047845462</v>
+        <v>0.0981876230767296</v>
       </c>
       <c r="N3">
-        <v>1.46525567052967</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>1860701</v>
@@ -680,19 +683,19 @@
         <v>5540503</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,37 +715,37 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>0.08827525718496421</v>
+        <v>0.0541717663740272</v>
       </c>
       <c r="G4">
-        <v>0.0068493150684931</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H4">
-        <v>0.712328767123288</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>2.775</v>
+        <v>2.65</v>
       </c>
       <c r="K4">
-        <v>0.0265119398274774</v>
+        <v>0.0305087822014052</v>
       </c>
       <c r="L4">
-        <v>-0.0034724443135832</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0971633583646566</v>
+        <v>0.0900088158496707</v>
       </c>
       <c r="N4">
-        <v>0.955385219008194</v>
+        <v>1.15127480005302</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4">
         <v>1860701</v>
@@ -751,19 +754,19 @@
         <v>5540503</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
